--- a/resources/AAA_Sample_Data_Data_Dictionary.xlsx
+++ b/resources/AAA_Sample_Data_Data_Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Applications\EnterpriseDataTechnology\004. Projects\Bryant University\Columbia - October 21, 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\MLPGD_Capstone_Project\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8CCA921-635A-43AC-8F2B-0B8ECC466A86}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC41565-CD87-49D0-8D20-D793C06A1989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Fields" sheetId="4" r:id="rId1"/>
@@ -1670,7 +1670,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
